--- a/groupproject2/Distance between trash receptacles in Cambridge.xlsx
+++ b/groupproject2/Distance between trash receptacles in Cambridge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\Alice\Abroad Programs\Harvard DCE Summer Program 2024\AM115 Mathematical Modelling\Group Project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28398C82-223F-4673-A88D-A91C7EE07ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C48DD08-EDE0-4283-B5A8-4912C93A0BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{C1322D42-EFB8-4CA1-9A02-E422806FEA6E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Garden St and Peabody St</t>
   </si>
@@ -84,6 +84,18 @@
   </si>
   <si>
     <t>Le's on Dunster St</t>
+  </si>
+  <si>
+    <t>distance between 7 and 8 = 101 ft = 31 m</t>
+  </si>
+  <si>
+    <t>length of sidewalk in Harvard Square:</t>
+  </si>
+  <si>
+    <t>1.26 mi + 1.23 mi = 2.49 mi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0 km </t>
   </si>
 </sst>
 </file>
@@ -455,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2FA56B-8AE3-4BF9-9712-28B3D67F6FD0}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,7 +482,7 @@
     <col min="6" max="9" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -487,7 +499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>42.375033030637098</v>
       </c>
@@ -501,7 +513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>42.374805847591603</v>
       </c>
@@ -517,8 +529,11 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>42.373585056189</v>
       </c>
@@ -531,8 +546,11 @@
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>42.374470726479402</v>
       </c>
@@ -548,8 +566,11 @@
       <c r="E5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>42.374126212792</v>
       </c>
@@ -563,7 +584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>42.373307233020597</v>
       </c>
@@ -580,14 +601,35 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>42.372570000000003</v>
+      </c>
+      <c r="B8">
+        <v>-71.119119999999995</v>
+      </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>42.372320000000002</v>
+      </c>
+      <c r="B9">
+        <v>-71.11927</v>
+      </c>
       <c r="C9" t="s">
         <v>14</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/groupproject2/Distance between trash receptacles in Cambridge.xlsx
+++ b/groupproject2/Distance between trash receptacles in Cambridge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\Alice\Abroad Programs\Harvard DCE Summer Program 2024\AM115 Mathematical Modelling\Group Project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C48DD08-EDE0-4283-B5A8-4912C93A0BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12C7BDD-209E-4B47-800A-418BF01CE2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{C1322D42-EFB8-4CA1-9A02-E422806FEA6E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Garden St and Peabody St</t>
   </si>
@@ -90,12 +90,6 @@
   </si>
   <si>
     <t>length of sidewalk in Harvard Square:</t>
-  </si>
-  <si>
-    <t>1.26 mi + 1.23 mi = 2.49 mi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0 km </t>
   </si>
 </sst>
 </file>
@@ -470,7 +464,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,9 +540,6 @@
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -565,9 +556,6 @@
       </c>
       <c r="E5" t="s">
         <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">

--- a/groupproject2/Distance between trash receptacles in Cambridge.xlsx
+++ b/groupproject2/Distance between trash receptacles in Cambridge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\Alice\Abroad Programs\Harvard DCE Summer Program 2024\AM115 Mathematical Modelling\Group Project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12C7BDD-209E-4B47-800A-418BF01CE2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FA0722-2B94-4FA4-A419-B35C5F397825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{C1322D42-EFB8-4CA1-9A02-E422806FEA6E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Garden St and Peabody St</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>length of sidewalk in Harvard Square:</t>
+  </si>
+  <si>
+    <t>3.8 mi</t>
+  </si>
+  <si>
+    <t>6116 m</t>
   </si>
 </sst>
 </file>
@@ -464,7 +470,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,6 +546,9 @@
       <c r="D4">
         <v>3</v>
       </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -556,6 +565,9 @@
       </c>
       <c r="E5" t="s">
         <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
